--- a/src/otld/caseload/appended_data/CaseloadDataWide.xlsx
+++ b/src/otld/caseload/appended_data/CaseloadDataWide.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="TANF" sheetId="1" r:id="rId1"/>
     <sheet name="SSP-MOE" sheetId="2" r:id="rId2"/>
-    <sheet name="TANF &amp; SSP" sheetId="3" r:id="rId3"/>
+    <sheet name="TANF and SSP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
